--- a/02. Data2HR/dataAD.xlsx
+++ b/02. Data2HR/dataAD.xlsx
@@ -19589,7 +19589,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -19642,7 +19642,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -19695,7 +19695,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -19748,7 +19748,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -19801,7 +19801,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -19854,7 +19854,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -19907,7 +19907,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -19960,7 +19960,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -20633,7 +20633,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -20678,7 +20678,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -20731,7 +20731,7 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -20935,7 +20935,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -20980,7 +20980,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -21082,7 +21082,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -21135,7 +21135,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -21188,7 +21188,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -21241,7 +21241,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -21294,7 +21294,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -21347,7 +21347,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -21400,7 +21400,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -21453,7 +21453,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -21506,7 +21506,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -21551,7 +21551,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -21649,7 +21649,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -21702,7 +21702,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -21747,7 +21747,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -21800,7 +21800,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
@@ -21853,7 +21853,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Medio</t>
         </is>
       </c>
     </row>
